--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>foo</t>
+    <t>bar</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>bar</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,13 +359,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>